--- a/doc/劳务管理模块/董岩的工作计划-至0820.xlsx
+++ b/doc/劳务管理模块/董岩的工作计划-至0820.xlsx
@@ -205,7 +205,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -215,6 +215,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -268,7 +274,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -353,17 +359,33 @@
     <xf numFmtId="49" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -670,7 +692,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -687,15 +709,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -721,7 +743,7 @@
       </c>
     </row>
     <row r="3" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="25" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="24"/>
@@ -729,10 +751,10 @@
       <c r="D3" s="24">
         <v>1</v>
       </c>
-      <c r="E3" s="28">
+      <c r="E3" s="27">
         <v>43318</v>
       </c>
-      <c r="F3" s="28">
+      <c r="F3" s="27">
         <v>43318</v>
       </c>
       <c r="G3" s="15"/>
@@ -746,10 +768,10 @@
       <c r="D4" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="28">
+      <c r="E4" s="27">
         <v>43319</v>
       </c>
-      <c r="F4" s="28">
+      <c r="F4" s="27">
         <v>43320</v>
       </c>
       <c r="G4" s="15"/>
@@ -758,15 +780,15 @@
       <c r="A5" s="21" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="27"/>
+      <c r="B5" s="26"/>
       <c r="C5" s="13"/>
       <c r="D5" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="28">
+      <c r="E5" s="27">
         <v>43321</v>
       </c>
-      <c r="F5" s="28">
+      <c r="F5" s="27">
         <v>43322</v>
       </c>
       <c r="G5" s="15"/>
@@ -780,27 +802,27 @@
       <c r="D6" s="24" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="28">
+      <c r="E6" s="27">
         <v>43322</v>
       </c>
-      <c r="F6" s="28">
+      <c r="F6" s="27">
         <v>43322</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="21" t="s">
+      <c r="A7" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="11"/>
-      <c r="C7" s="13"/>
-      <c r="D7" s="24" t="s">
+      <c r="B7" s="30"/>
+      <c r="C7" s="31"/>
+      <c r="D7" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="28">
+      <c r="E7" s="33">
         <v>43323</v>
       </c>
-      <c r="F7" s="28">
+      <c r="F7" s="33">
         <v>43323</v>
       </c>
       <c r="G7" s="15"/>
@@ -814,10 +836,10 @@
       <c r="D8" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="E8" s="28">
+      <c r="E8" s="27">
         <v>43324</v>
       </c>
-      <c r="F8" s="28">
+      <c r="F8" s="27">
         <v>43325</v>
       </c>
       <c r="G8" s="15"/>
@@ -831,10 +853,10 @@
       <c r="D9" s="24" t="s">
         <v>18</v>
       </c>
-      <c r="E9" s="28">
+      <c r="E9" s="27">
         <v>43326</v>
       </c>
-      <c r="F9" s="28">
+      <c r="F9" s="27">
         <v>43326</v>
       </c>
       <c r="G9" s="15"/>
@@ -848,10 +870,10 @@
       <c r="D10" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="E10" s="28">
+      <c r="E10" s="27">
         <v>43327</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="27">
         <v>43328</v>
       </c>
       <c r="G10" s="15"/>

--- a/doc/劳务管理模块/董岩的工作计划-至0820.xlsx
+++ b/doc/劳务管理模块/董岩的工作计划-至0820.xlsx
@@ -368,25 +368,25 @@
     <xf numFmtId="14" fontId="8" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="31" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -692,7 +692,7 @@
   <dimension ref="A1:G39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="20.100000000000001" customHeight="1"/>
@@ -709,15 +709,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.100000000000001" customHeight="1">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
+      <c r="B1" s="33"/>
+      <c r="C1" s="33"/>
+      <c r="D1" s="33"/>
+      <c r="E1" s="33"/>
+      <c r="F1" s="33"/>
+      <c r="G1" s="33"/>
     </row>
     <row r="2" spans="1:7" s="3" customFormat="1" ht="20.100000000000001" customHeight="1">
       <c r="A2" s="2" t="s">
@@ -794,35 +794,35 @@
       <c r="G5" s="15"/>
     </row>
     <row r="6" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A6" s="21" t="s">
+      <c r="A6" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B6" s="24"/>
-      <c r="C6" s="13"/>
-      <c r="D6" s="24" t="s">
+      <c r="B6" s="31"/>
+      <c r="C6" s="30"/>
+      <c r="D6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="27">
+      <c r="E6" s="32">
         <v>43322</v>
       </c>
-      <c r="F6" s="27">
+      <c r="F6" s="32">
         <v>43322</v>
       </c>
       <c r="G6" s="15"/>
     </row>
     <row r="7" spans="1:7" s="10" customFormat="1" ht="39.950000000000003" customHeight="1">
-      <c r="A7" s="29" t="s">
+      <c r="A7" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B7" s="30"/>
-      <c r="C7" s="31"/>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="29"/>
+      <c r="C7" s="30"/>
+      <c r="D7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="33">
+      <c r="E7" s="32">
         <v>43323</v>
       </c>
-      <c r="F7" s="33">
+      <c r="F7" s="32">
         <v>43323</v>
       </c>
       <c r="G7" s="15"/>
